--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H2">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I2">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J2">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N2">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q2">
-        <v>72.71887571048833</v>
+        <v>170.4112875217495</v>
       </c>
       <c r="R2">
-        <v>654.469881394395</v>
+        <v>1533.701587695746</v>
       </c>
       <c r="S2">
-        <v>0.00828832753851857</v>
+        <v>0.01050413105929252</v>
       </c>
       <c r="T2">
-        <v>0.008288327538518568</v>
+        <v>0.01050413105929252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H3">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I3">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J3">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N3">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q3">
-        <v>1.089408715364444</v>
+        <v>4.315768779303333</v>
       </c>
       <c r="R3">
-        <v>9.80467843828</v>
+        <v>38.84191901373</v>
       </c>
       <c r="S3">
-        <v>0.0001241682598642672</v>
+        <v>0.0002660234632263969</v>
       </c>
       <c r="T3">
-        <v>0.0001241682598642672</v>
+        <v>0.000266023463226397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H4">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I4">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J4">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N4">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O4">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P4">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q4">
-        <v>0.2478325598564444</v>
+        <v>1.024342780104</v>
       </c>
       <c r="R4">
-        <v>2.230493038708</v>
+        <v>9.219085020935999</v>
       </c>
       <c r="S4">
-        <v>2.824737608674899E-05</v>
+        <v>6.314036451651828E-05</v>
       </c>
       <c r="T4">
-        <v>2.824737608674899E-05</v>
+        <v>6.314036451651828E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H5">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I5">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J5">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N5">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q5">
-        <v>31.97834952007789</v>
+        <v>68.4416010087032</v>
       </c>
       <c r="R5">
-        <v>287.8051456807009</v>
+        <v>615.9744090783289</v>
       </c>
       <c r="S5">
-        <v>0.00364481755767032</v>
+        <v>0.00421873197109358</v>
       </c>
       <c r="T5">
-        <v>0.003644817557670319</v>
+        <v>0.004218731971093581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H6">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I6">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J6">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N6">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O6">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P6">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q6">
-        <v>0.4513876528369999</v>
+        <v>0.3857907586718888</v>
       </c>
       <c r="R6">
-        <v>4.062488875532999</v>
+        <v>3.472116828047</v>
       </c>
       <c r="S6">
-        <v>5.144810995773634E-05</v>
+        <v>2.378009549418025E-05</v>
       </c>
       <c r="T6">
-        <v>5.144810995773634E-05</v>
+        <v>2.378009549418025E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>460.130753</v>
       </c>
       <c r="I7">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J7">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N7">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q7">
-        <v>3237.810505365572</v>
+        <v>4172.176603839838</v>
       </c>
       <c r="R7">
-        <v>29140.29454829015</v>
+        <v>37549.58943455854</v>
       </c>
       <c r="S7">
-        <v>0.3690380759318534</v>
+        <v>0.2571724589760771</v>
       </c>
       <c r="T7">
-        <v>0.3690380759318533</v>
+        <v>0.2571724589760771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J8">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N8">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q8">
-        <v>48.50596146847556</v>
+        <v>105.6628923497433</v>
       </c>
       <c r="R8">
-        <v>436.5536532162801</v>
+        <v>950.9660311476902</v>
       </c>
       <c r="S8">
-        <v>0.005528596149121993</v>
+        <v>0.006513047847279277</v>
       </c>
       <c r="T8">
-        <v>0.005528596149121993</v>
+        <v>0.006513047847279278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J9">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N9">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O9">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P9">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q9">
-        <v>11.03475346716756</v>
+        <v>25.078966561512</v>
       </c>
       <c r="R9">
-        <v>99.312781204508</v>
+        <v>225.710699053608</v>
       </c>
       <c r="S9">
-        <v>0.001257715416377055</v>
+        <v>0.001545864451966627</v>
       </c>
       <c r="T9">
-        <v>0.001257715416377055</v>
+        <v>0.001545864451966627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J10">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N10">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q10">
-        <v>1423.83714006495</v>
+        <v>1675.654533279715</v>
       </c>
       <c r="R10">
-        <v>12814.53426058455</v>
+        <v>15080.89079951744</v>
       </c>
       <c r="S10">
-        <v>0.1622856302859994</v>
+        <v>0.1032871418533312</v>
       </c>
       <c r="T10">
-        <v>0.1622856302859994</v>
+        <v>0.1032871418533313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J11">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N11">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O11">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P11">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q11">
-        <v>20.098051160287</v>
+        <v>9.445308469387889</v>
       </c>
       <c r="R11">
-        <v>180.882460442583</v>
+        <v>85.007776224491</v>
       </c>
       <c r="S11">
-        <v>0.002290728910132695</v>
+        <v>0.0005822076665269796</v>
       </c>
       <c r="T11">
-        <v>0.002290728910132695</v>
+        <v>0.0005822076665269796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H12">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I12">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J12">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N12">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q12">
-        <v>1935.586206571325</v>
+        <v>6465.456966818737</v>
       </c>
       <c r="R12">
-        <v>17420.27585914193</v>
+        <v>58189.11270136863</v>
       </c>
       <c r="S12">
-        <v>0.2206135931332605</v>
+        <v>0.3985299819356862</v>
       </c>
       <c r="T12">
-        <v>0.2206135931332604</v>
+        <v>0.3985299819356863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H13">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I13">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J13">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N13">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q13">
-        <v>28.99720962646667</v>
+        <v>163.7416026081267</v>
       </c>
       <c r="R13">
-        <v>260.9748866382</v>
+        <v>1473.67442347314</v>
       </c>
       <c r="S13">
-        <v>0.003305034198329542</v>
+        <v>0.01009301249152781</v>
       </c>
       <c r="T13">
-        <v>0.003305034198329542</v>
+        <v>0.01009301249152782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H14">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N14">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O14">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P14">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q14">
-        <v>6.596654303446668</v>
+        <v>38.863881966672</v>
       </c>
       <c r="R14">
-        <v>59.36988873102</v>
+        <v>349.774937700048</v>
       </c>
       <c r="S14">
-        <v>0.000751871243760967</v>
+        <v>0.002395564962788602</v>
       </c>
       <c r="T14">
-        <v>0.0007518712437609671</v>
+        <v>0.002395564962788602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H15">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N15">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q15">
-        <v>851.1799946743685</v>
+        <v>2596.695515286635</v>
       </c>
       <c r="R15">
-        <v>7660.619952069316</v>
+        <v>23370.25963757972</v>
       </c>
       <c r="S15">
-        <v>0.09701550692536529</v>
+        <v>0.1600599960854512</v>
       </c>
       <c r="T15">
-        <v>0.09701550692536526</v>
+        <v>0.1600599960854512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H16">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N16">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O16">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P16">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q16">
-        <v>12.014758288155</v>
+        <v>14.63702073180511</v>
       </c>
       <c r="R16">
-        <v>108.132824593395</v>
+        <v>131.733186586246</v>
       </c>
       <c r="S16">
-        <v>0.001369414075993428</v>
+        <v>0.0009022241796326993</v>
       </c>
       <c r="T16">
-        <v>0.001369414075993428</v>
+        <v>0.0009022241796326996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H17">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I17">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J17">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N17">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q17">
-        <v>383.9932691000267</v>
+        <v>185.1811022084565</v>
       </c>
       <c r="R17">
-        <v>3455.93942190024</v>
+        <v>1666.629919876108</v>
       </c>
       <c r="S17">
-        <v>0.0437666555731483</v>
+        <v>0.01141454064217201</v>
       </c>
       <c r="T17">
-        <v>0.0437666555731483</v>
+        <v>0.01141454064217201</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H18">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I18">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J18">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N18">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q18">
-        <v>5.752641386595555</v>
+        <v>4.689823256726667</v>
       </c>
       <c r="R18">
-        <v>51.77377247936</v>
+        <v>42.20840931054001</v>
       </c>
       <c r="S18">
-        <v>0.0006556726236192987</v>
+        <v>0.0002890801357702764</v>
       </c>
       <c r="T18">
-        <v>0.0006556726236192988</v>
+        <v>0.0002890801357702764</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H19">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I19">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J19">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N19">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O19">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P19">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q19">
-        <v>1.308684078499555</v>
+        <v>1.113124182192</v>
       </c>
       <c r="R19">
-        <v>11.778156706496</v>
+        <v>10.018117639728</v>
       </c>
       <c r="S19">
-        <v>0.0001491607533954793</v>
+        <v>6.861283935502377E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001491607533954793</v>
+        <v>6.861283935502377E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H20">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N20">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q20">
-        <v>168.8622225338791</v>
+        <v>74.37354236341577</v>
       </c>
       <c r="R20">
-        <v>1519.760002804912</v>
+        <v>669.3618812707419</v>
       </c>
       <c r="S20">
-        <v>0.01924652156085434</v>
+        <v>0.004584376115516733</v>
       </c>
       <c r="T20">
-        <v>0.01924652156085434</v>
+        <v>0.004584376115516734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H21">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N21">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O21">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P21">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q21">
-        <v>2.383560234543999</v>
+        <v>0.4192278513451111</v>
       </c>
       <c r="R21">
-        <v>21.452042110896</v>
+        <v>3.773050662106</v>
       </c>
       <c r="S21">
-        <v>0.0002716726261052385</v>
+        <v>2.584115382423018E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002716726261052386</v>
+        <v>2.584115382423018E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H22">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I22">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J22">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N22">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q22">
-        <v>184.91892029567</v>
+        <v>168.3642376691984</v>
       </c>
       <c r="R22">
-        <v>1664.27028266103</v>
+        <v>1515.278139022786</v>
       </c>
       <c r="S22">
-        <v>0.02107662645365492</v>
+        <v>0.01037795115508073</v>
       </c>
       <c r="T22">
-        <v>0.02107662645365491</v>
+        <v>0.01037795115508073</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H23">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I23">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J23">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N23">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q23">
-        <v>2.770288751546667</v>
+        <v>4.263926005436667</v>
       </c>
       <c r="R23">
-        <v>24.93259876392</v>
+        <v>38.37533404893001</v>
       </c>
       <c r="S23">
-        <v>0.0003157510388431482</v>
+        <v>0.0002628278809437196</v>
       </c>
       <c r="T23">
-        <v>0.0003157510388431481</v>
+        <v>0.0002628278809437197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H24">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I24">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J24">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N24">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O24">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P24">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q24">
-        <v>0.6302205436346667</v>
+        <v>1.012037957064</v>
       </c>
       <c r="R24">
-        <v>5.671984892712</v>
+        <v>9.108341613576</v>
       </c>
       <c r="S24">
-        <v>7.183106498982854E-05</v>
+        <v>6.238189671926592E-05</v>
       </c>
       <c r="T24">
-        <v>7.183106498982854E-05</v>
+        <v>6.238189671926592E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H25">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I25">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J25">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N25">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q25">
-        <v>81.31866462887935</v>
+        <v>67.61945259769877</v>
       </c>
       <c r="R25">
-        <v>731.867981659914</v>
+        <v>608.5750733792889</v>
       </c>
       <c r="S25">
-        <v>0.009268511385165509</v>
+        <v>0.004168054842923432</v>
       </c>
       <c r="T25">
-        <v>0.009268511385165506</v>
+        <v>0.004168054842923433</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H26">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I26">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J26">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N26">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O26">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P26">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q26">
-        <v>1.147846643418</v>
+        <v>0.3811564828141111</v>
       </c>
       <c r="R26">
-        <v>10.330619790762</v>
+        <v>3.430408345327</v>
       </c>
       <c r="S26">
-        <v>0.0001308288783577183</v>
+        <v>2.349443929333264E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001308288783577183</v>
+        <v>2.349443929333264E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H27">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I27">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J27">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N27">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q27">
-        <v>176.4711710552633</v>
+        <v>142.0360718972944</v>
       </c>
       <c r="R27">
-        <v>1588.24053949737</v>
+        <v>1278.32464707565</v>
       </c>
       <c r="S27">
-        <v>0.02011377173424864</v>
+        <v>0.008755086215552809</v>
       </c>
       <c r="T27">
-        <v>0.02011377173424864</v>
+        <v>0.008755086215552809</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H28">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I28">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J28">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N28">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q28">
-        <v>2.643732179297777</v>
+        <v>3.597149305916667</v>
       </c>
       <c r="R28">
-        <v>23.79358961368</v>
+        <v>32.37434375325</v>
       </c>
       <c r="S28">
-        <v>0.0003013264164503724</v>
+        <v>0.0002217278461931068</v>
       </c>
       <c r="T28">
-        <v>0.0003013264164503724</v>
+        <v>0.0002217278461931068</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H29">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I29">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J29">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N29">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O29">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P29">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q29">
-        <v>0.6014298438497777</v>
+        <v>0.8537792705999999</v>
       </c>
       <c r="R29">
-        <v>5.412868594648</v>
+        <v>7.6840134354</v>
       </c>
       <c r="S29">
-        <v>6.854956830071101E-05</v>
+        <v>5.262685051273356E-05</v>
       </c>
       <c r="T29">
-        <v>6.854956830071103E-05</v>
+        <v>5.262685051273356E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H30">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I30">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J30">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N30">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q30">
-        <v>77.60374088688955</v>
+        <v>57.04537711680277</v>
       </c>
       <c r="R30">
-        <v>698.433667982006</v>
+        <v>513.4083940512249</v>
       </c>
       <c r="S30">
-        <v>0.008845093057346263</v>
+        <v>0.003516270114942857</v>
       </c>
       <c r="T30">
-        <v>0.008845093057346263</v>
+        <v>0.003516270114942858</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H31">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I31">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J31">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N31">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O31">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P31">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q31">
-        <v>1.095408955622</v>
+        <v>0.3215526666861111</v>
       </c>
       <c r="R31">
-        <v>9.858680600597999</v>
+        <v>2.893974000175</v>
       </c>
       <c r="S31">
-        <v>0.0001248521532286588</v>
+        <v>1.982046730856856E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001248521532286588</v>
+        <v>1.982046730856856E-05</v>
       </c>
     </row>
   </sheetData>
